--- a/People.xlsx
+++ b/People.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://raboweb-my.sharepoint.com/personal/sjors_cooijmans_rabobank_nl/Documents/Documents/Own Code/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://raboweb-my.sharepoint.com/personal/sjors_cooijmans_rabobank_nl/Documents/Documents/Own Code/Wheel of standup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{591C5336-433D-4AE9-87D4-CB3C10A21AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DEB1E1E-4037-41B3-BA4B-CCF4F10C01DB}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{591C5336-433D-4AE9-87D4-CB3C10A21AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{791355D3-5185-4509-A5CD-B7EA154672DB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56FCC8E3-F7D0-424A-9648-7903CBF782C3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="6">
   <si>
     <t>Sjors</t>
   </si>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E79FAB-505D-4489-B483-F690843B851F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A89" sqref="A2:A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,6 +451,426 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
